--- a/史料统计.xlsx
+++ b/史料统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\留声南洋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE3BFD-0A6E-4D10-99C7-26AF222AC554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA9C87D-0F89-4EF5-8251-5788CABBA082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="莹姿" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -537,8 +537,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -823,13 +821,13 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="14.9140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.08203125" customWidth="1"/>
@@ -1104,7 +1102,7 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1388,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7582BF22-D224-406B-ADFB-A7E6486F4052}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1826,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECA42C4-3B22-4A3F-A679-80520D0776A4}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1859,10 +1857,10 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
@@ -2296,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54626960-BB3F-42C9-97CB-5A39959A60E1}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
